--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_886/livehta_886_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_886/livehta_886_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_886\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82812E59-8493-43D7-8B58-BB3FA68CD251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D65724-7E77-4B94-8316-599569F80724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>File_with_ValidData.xlsx</t>
-  </si>
-  <si>
-    <t>LIVEHTA Automation - Test_NonOncology_Automation_2 - 4/13/2023</t>
   </si>
   <si>
     <t>\Testdata\Non_Oncology\Templates\LIVEHTA_886\File_with_ValidData_with_NR_value_for_EP1.xlsx</t>
@@ -435,15 +432,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7:I10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="86" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -463,116 +460,116 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/LIVEHTA_886/livehta_886_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LIVEHTA_886/livehta_886_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LIVEHTA_886\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D65724-7E77-4B94-8316-599569F80724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A4B2E-82F6-4C85-9511-BA8C3FBEDAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -434,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,16 +558,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
